--- a/REGN - Regeneron/REGN.xlsx
+++ b/REGN - Regeneron/REGN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malburg\Desktop\REGN - Regeneron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA6441-D53B-47D0-8BCF-F03ADA65F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC90AD7-23A1-4C95-B281-7370B6062BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="2835" yWindow="30" windowWidth="22875" windowHeight="14970" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,11 +49,38 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={67AA53B5-7D13-4464-AAE4-3ECFBC053D39}</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{67AA53B5-7D13-4464-AAE4-3ECFBC053D39}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Formycon is a biosimilar durg</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EDBCC96E-E9C1-4CEA-A443-382284B8F8CD}</author>
     <author>tc={CFF3BC2E-892D-4995-B558-D2A9395BF1AF}</author>
     <author>tc={E621A5CA-53E8-48F9-80F2-12D076620DD9}</author>
   </authors>
   <commentList>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+    <comment ref="AO3" authorId="0" shapeId="0" xr:uid="{EDBCC96E-E9C1-4CEA-A443-382284B8F8CD}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Patent expiry 2025-2026</t>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="1" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -61,7 +88,7 @@
     NGNI 1080.2</t>
       </text>
     </comment>
-    <comment ref="N29" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+    <comment ref="N29" authorId="2" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -74,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="569">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1934,6 +1961,12 @@
   <si>
     <t xml:space="preserve">Result: </t>
   </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>Question: If Eyla expires in 2025-2026, will they have an enough of a big upcoming drug in order to the big percentage of revenue that is gonna be missing ????</t>
+  </si>
 </sst>
 </file>
 
@@ -1942,7 +1975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2009,6 +2042,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2164,15 +2209,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -2236,7 +2282,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2289,19 +2334,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E14D3674-039E-4586-B983-DD274F8F7112}"/>
+    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2425,6 +2476,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Martin Shkreli" id="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" userId="9ffda80931a57275" providerId="Windows Live"/>
+  <person displayName="Norbert Malburg" id="{4E3AB016-14A2-4B91-A2BE-550A5C419640}" userId="S::malburg@sms-cie.de::ed8233a0-bf81-43a8-8bb1-21c7a1649d27" providerId="AD"/>
 </personList>
 </file>
 
@@ -2725,6 +2777,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B7" dT="2024-08-21T11:58:20.51" personId="{4E3AB016-14A2-4B91-A2BE-550A5C419640}" id="{67AA53B5-7D13-4464-AAE4-3ECFBC053D39}">
+    <text>Formycon is a biosimilar durg</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AO3" dT="2024-08-08T08:05:12.21" personId="{4E3AB016-14A2-4B91-A2BE-550A5C419640}" id="{EDBCC96E-E9C1-4CEA-A443-382284B8F8CD}">
+    <text>Patent expiry 2025-2026</text>
+  </threadedComment>
   <threadedComment ref="J29" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
     <text>NGNI 1080.2</text>
   </threadedComment>
@@ -2735,11 +2798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
-  <dimension ref="B2:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
+  <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2770,10 +2833,10 @@
       <c r="G2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="61">
         <v>790</v>
       </c>
       <c r="K2" s="26"/>
@@ -2797,10 +2860,10 @@
       <c r="G3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="63">
         <f>107.507386+1.818146</f>
         <v>109.325532</v>
       </c>
@@ -2809,48 +2872,48 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="I4" t="s">
+      <c r="G4" s="35"/>
+      <c r="I4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="64">
         <f>J2*J3</f>
         <v>86367.170279999991</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="I5" t="s">
+      <c r="G5" s="35"/>
+      <c r="I5" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="64">
         <v>14334</v>
       </c>
       <c r="K5" s="26" t="s">
@@ -2858,24 +2921,24 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="I6" t="s">
+      <c r="G6" s="35"/>
+      <c r="I6" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="64">
         <v>1980.7</v>
       </c>
       <c r="K6" s="26" t="s">
@@ -2883,82 +2946,82 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="66">
         <f>J4-J5+J6</f>
         <v>74013.870279999988</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2970,409 +3033,414 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="35" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="35" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="35" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="35" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="35" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="35" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="46" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="46" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="46" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="46" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="46" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="42"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="46" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="42"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="46" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="42"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="46" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="42"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="46" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="42"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="48" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="48" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="42"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="48" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="42"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="48" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="42"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="48" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="42"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="48" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="42"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="48" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="42"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="48" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="42"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="48" t="s">
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="42"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="48" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="42"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="48" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="42"/>
+      <c r="G47" s="41"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3385,6 +3453,7 @@
     <hyperlink ref="B13" location="Linvoseltamab!A1" display="linvoseltamab" xr:uid="{1B7FF0DB-8E3B-4866-B03B-EF6E27C40B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4009,11 +4078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:BH62"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5047,6 +5116,10 @@
       <c r="R13" s="18">
         <v>2448.9</v>
       </c>
+      <c r="Y13" s="59">
+        <f>+V3/V19</f>
+        <v>0.46253762907497037</v>
+      </c>
       <c r="AJ13" s="1">
         <f t="shared" si="2"/>
         <v>4044.6</v>
@@ -5107,6 +5180,10 @@
       </c>
       <c r="R14" s="18">
         <v>133.4</v>
+      </c>
+      <c r="Y14" s="59">
+        <f>+V9/V19</f>
+        <v>0.2819410822633211</v>
       </c>
       <c r="AJ14" s="1">
         <f t="shared" si="2"/>
@@ -6510,124 +6587,124 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50">
         <f t="shared" ref="K33" si="68">K19/G19-1</f>
         <v>0.38354665791488918</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="50">
         <f t="shared" ref="L33" si="69">L19/H19-1</f>
         <v>1.6321262101111507</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="50">
         <f t="shared" ref="M33:O33" si="70">M19/I19-1</f>
         <v>0.50531868515127765</v>
       </c>
-      <c r="N33" s="51">
+      <c r="N33" s="50">
         <f t="shared" si="70"/>
         <v>1.153106926990477</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="50">
         <f t="shared" si="70"/>
         <v>0.17241242982525495</v>
       </c>
-      <c r="P33" s="51">
+      <c r="P33" s="50">
         <f>P19/L19-1</f>
         <v>-0.44412010819857162</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="50">
         <f t="shared" ref="Q33" si="71">Q19/M19-1</f>
         <v>-0.14958440730979761</v>
       </c>
-      <c r="R33" s="51">
+      <c r="R33" s="50">
         <f>R19/N19-1</f>
         <v>-0.31049177017065521</v>
       </c>
-      <c r="S33" s="51">
+      <c r="S33" s="50">
         <f t="shared" ref="S33" si="72">S19/O19-1</f>
         <v>0.12526487944697373</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T33" s="50">
         <f t="shared" ref="T33" si="73">T19/P19-1</f>
         <v>0.21640731664624546</v>
       </c>
-      <c r="U33" s="51">
+      <c r="U33" s="50">
         <f t="shared" ref="U33" si="74">U19/Q19-1</f>
         <v>0.18493967953957213</v>
       </c>
-      <c r="V33" s="51">
+      <c r="V33" s="50">
         <f t="shared" ref="V33" si="75">V19/R19-1</f>
         <v>4.2079784936000841E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="49">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="48">
         <f t="shared" ref="K34" si="76">+K3/G3-1</f>
         <v>0.14931740614334466</v>
       </c>
-      <c r="L34" s="49">
+      <c r="L34" s="48">
         <f t="shared" ref="L34" si="77">+L3/H3-1</f>
         <v>0.2791741472172351</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="48">
         <f>+M3/I3-1</f>
         <v>0.11760242792109254</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34" s="48">
         <f t="shared" ref="N34:V34" si="78">+N3/J3-1</f>
         <v>0.15189873417721511</v>
       </c>
-      <c r="O34" s="49">
+      <c r="O34" s="48">
         <f t="shared" si="78"/>
         <v>0.12694877505567925</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="48">
         <f t="shared" si="78"/>
         <v>0.13754385964912275</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="48">
         <f t="shared" si="78"/>
         <v>0.10590631364562109</v>
       </c>
-      <c r="R34" s="49">
+      <c r="R34" s="48">
         <f>+R3/N3-1</f>
         <v>-3.2967032967032961E-2</v>
       </c>
-      <c r="S34" s="49">
+      <c r="S34" s="48">
         <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T34" s="49">
+      <c r="T34" s="48">
         <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U34" s="49">
+      <c r="U34" s="48">
         <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V34" s="49">
+      <c r="V34" s="48">
         <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
@@ -6636,51 +6713,51 @@
       <c r="B35" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="49">
+      <c r="K35" s="48">
         <f t="shared" ref="K35" si="79">K9/G9-1</f>
         <v>0.47752126366950209</v>
       </c>
-      <c r="L35" s="49">
+      <c r="L35" s="48">
         <f t="shared" ref="L35" si="80">L9/H9-1</f>
         <v>0.6265328874024525</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="48">
         <f>M9/I9-1</f>
         <v>0.64675912821964343</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35" s="48">
         <f t="shared" ref="N35:Q35" si="81">N9/J9-1</f>
         <v>0.63323872595395758</v>
       </c>
-      <c r="O35" s="49">
+      <c r="O35" s="48">
         <f t="shared" si="81"/>
         <v>0.72944078947368385</v>
       </c>
-      <c r="P35" s="49">
+      <c r="P35" s="48">
         <f t="shared" si="81"/>
         <v>0.54786383367603375</v>
       </c>
-      <c r="Q35" s="49">
+      <c r="Q35" s="48">
         <f t="shared" si="81"/>
         <v>0.22275696115503596</v>
       </c>
-      <c r="R35" s="49">
+      <c r="R35" s="48">
         <f>R9/N9-1</f>
         <v>0.61401815022205053</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="48">
         <f t="shared" ref="S35" si="82">S9/O9-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="T35" s="49">
+      <c r="T35" s="48">
         <f t="shared" ref="T35" si="83">T9/P9-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="U35" s="49">
+      <c r="U35" s="48">
         <f t="shared" ref="U35" si="84">U9/Q9-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V35" s="49">
+      <c r="V35" s="48">
         <f t="shared" ref="V35" si="85">V9/R9-1</f>
         <v>0.19999999999999996</v>
       </c>
@@ -6689,51 +6766,51 @@
       <c r="B36" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="48">
         <f t="shared" ref="K36" si="86">K13/G13-1</f>
         <v>0.47707602339181299</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="48">
         <f t="shared" ref="L36" si="87">L13/H13-1</f>
         <v>0.58624338624338623</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="48">
         <f>M13/I13-1</f>
         <v>0.55034495618124213</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="48">
         <f t="shared" ref="N36:Q36" si="88">N13/J13-1</f>
         <v>0.51348122866894186</v>
       </c>
-      <c r="O36" s="49">
+      <c r="O36" s="48">
         <f t="shared" si="88"/>
         <v>0.43352601156069359</v>
       </c>
-      <c r="P36" s="49">
+      <c r="P36" s="48">
         <f t="shared" si="88"/>
         <v>0.39546364242828558</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="48">
         <f t="shared" si="88"/>
         <v>0.40122677250586314</v>
       </c>
-      <c r="R36" s="49">
+      <c r="R36" s="48">
         <f>R13/N13-1</f>
         <v>0.38059533205547424</v>
       </c>
-      <c r="S36" s="49">
+      <c r="S36" s="48">
         <f t="shared" ref="S36" si="89">S13/O13-1</f>
         <v>-1</v>
       </c>
-      <c r="T36" s="49">
+      <c r="T36" s="48">
         <f t="shared" ref="T36" si="90">T13/P13-1</f>
         <v>-1</v>
       </c>
-      <c r="U36" s="49">
+      <c r="U36" s="48">
         <f t="shared" ref="U36" si="91">U13/Q13-1</f>
         <v>-1</v>
       </c>
-      <c r="V36" s="49">
+      <c r="V36" s="48">
         <f t="shared" ref="V36" si="92">V13/R13-1</f>
         <v>-1</v>
       </c>
@@ -6742,67 +6819,67 @@
       <c r="B38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="48">
         <f t="shared" ref="G38" si="93">+G21/G19</f>
         <v>0.88113991904605626</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="48">
         <f t="shared" ref="H38:O38" si="94">+H21/H19</f>
         <v>0.863648004917277</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="48">
         <f t="shared" si="94"/>
         <v>0.94681314848722642</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J38" s="48">
         <f t="shared" si="94"/>
         <v>0.85237204852806892</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="48">
         <f t="shared" si="94"/>
         <v>0.87823199177670597</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="48">
         <f t="shared" si="94"/>
         <v>0.86500476774281432</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="48">
         <f t="shared" si="94"/>
         <v>0.93512699470010718</v>
       </c>
-      <c r="N38" s="49">
+      <c r="N38" s="48">
         <f t="shared" si="94"/>
         <v>0.85259012420478653</v>
       </c>
-      <c r="O38" s="49">
+      <c r="O38" s="48">
         <f t="shared" si="94"/>
         <v>0.86346315966953291</v>
       </c>
-      <c r="P38" s="49">
+      <c r="P38" s="48">
         <f>+P21/P19</f>
         <v>0.89599159810957474</v>
       </c>
-      <c r="Q38" s="49">
+      <c r="Q38" s="48">
         <f t="shared" ref="Q38" si="95">+Q21/Q19</f>
         <v>0.96287971665985561</v>
       </c>
-      <c r="R38" s="49">
+      <c r="R38" s="48">
         <f>+R21/R19</f>
         <v>0.88658797340441109</v>
       </c>
-      <c r="S38" s="49">
+      <c r="S38" s="48">
         <f>+S21/S19</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="T38" s="49">
+      <c r="T38" s="48">
         <f>+T21/T19</f>
         <v>0.9</v>
       </c>
-      <c r="U38" s="49">
+      <c r="U38" s="48">
         <f>+U21/U19</f>
         <v>0.9</v>
       </c>
-      <c r="V38" s="49">
+      <c r="V38" s="48">
         <f>+V21/V19</f>
         <v>0.9</v>
       </c>
@@ -7097,1591 +7174,1607 @@
   <sheetPr codeName="Tabelle2">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:F340"/>
+  <dimension ref="B1:G340"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25" style="42" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="2:7" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D2" s="57"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D3" s="57" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="55" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="57"/>
-      <c r="E4" s="57">
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55">
+        <v>36216149</v>
+      </c>
+      <c r="F4" s="55">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="57">
-        <f>+E4+1</f>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="55">
+        <v>37796518</v>
+      </c>
+      <c r="F7" s="55">
+        <f>+F4+1</f>
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="57">
-        <f>+E7+1</f>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="55">
+        <f>+F7+1</f>
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="57">
-        <f>+E10+1</f>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="55">
+        <f>+F10+1</f>
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="57">
-        <f>+E13+1</f>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="55">
+        <f>+F13+1</f>
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="57">
-        <f>+E16+1</f>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="55">
+        <f>+F16+1</f>
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="57">
-        <f>+E19+1</f>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="55">
+        <f>+F19+1</f>
         <v>7</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="57">
-        <f>+E22+1</f>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="55">
+        <f>+F22+1</f>
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="57">
-        <f>+E25+1</f>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="55">
+        <f>+F25+1</f>
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="57">
-        <f>+E28+1</f>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="55">
+        <f>+F28+1</f>
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="57">
-        <f>+E31+1</f>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="55">
+        <f>+F31+1</f>
         <v>11</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37" s="57">
-        <f>+E34+1</f>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="55">
+        <f>+F34+1</f>
         <v>12</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="57">
-        <f>+E37+1</f>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="55">
+        <f>+F37+1</f>
         <v>13</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="57">
-        <f>+E40+1</f>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="55">
+        <f>+F40+1</f>
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="57">
-        <f>+E43+1</f>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="55">
+        <f>+F43+1</f>
         <v>15</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="57">
-        <f>+E46+1</f>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F49" s="55">
+        <f>+F46+1</f>
         <v>16</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E52" s="57">
-        <f>+E49+1</f>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="55">
+        <f>+F49+1</f>
         <v>17</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E55" s="57">
-        <f>+E52+1</f>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F55" s="55">
+        <f>+F52+1</f>
         <v>18</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E58" s="57">
-        <f>+E55+1</f>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F58" s="55">
+        <f>+F55+1</f>
         <v>19</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E61" s="57">
-        <f>+E58+1</f>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F61" s="55">
+        <f>+F58+1</f>
         <v>20</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64" s="57">
-        <f>+E61+1</f>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F64" s="55">
+        <f>+F61+1</f>
         <v>21</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E67" s="57">
-        <f>+E64+1</f>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="55">
+        <f>+F64+1</f>
         <v>22</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E70" s="57">
-        <f>+E67+1</f>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F70" s="55">
+        <f>+F67+1</f>
         <v>23</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F71" t="s">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E73" s="57">
-        <f>+E70+1</f>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="55">
+        <f>+F70+1</f>
         <v>24</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E76" s="57">
-        <f>+E73+1</f>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F76" s="55">
+        <f>+F73+1</f>
         <v>25</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E79" s="57">
-        <f>+E76+1</f>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F79" s="55">
+        <f>+F76+1</f>
         <v>26</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E82" s="57">
-        <f>+E79+1</f>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="55">
+        <f>+F79+1</f>
         <v>27</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E85" s="57">
-        <f>+E82+1</f>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F85" s="55">
+        <f>+F82+1</f>
         <v>28</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="57">
-        <f>+E85+1</f>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F88" s="55">
+        <f>+F85+1</f>
         <v>29</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="57">
-        <f>+E88+1</f>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F91" s="55">
+        <f>+F88+1</f>
         <v>30</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F92" t="s">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E94" s="57">
-        <f>+E91+1</f>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F94" s="55">
+        <f>+F91+1</f>
         <v>31</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F95" t="s">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E97" s="57">
-        <f>+E94+1</f>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F97" s="55">
+        <f>+F94+1</f>
         <v>32</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E100" s="57">
-        <f>+E97+1</f>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F100" s="55">
+        <f>+F97+1</f>
         <v>33</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F101" t="s">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="57">
-        <f>+E100+1</f>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F103" s="55">
+        <f>+F100+1</f>
         <v>34</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F104" t="s">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E106" s="57">
-        <f>+E103+1</f>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F106" s="55">
+        <f>+F103+1</f>
         <v>35</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F107" t="s">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E109" s="57">
-        <f>+E106+1</f>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F109" s="55">
+        <f>+F106+1</f>
         <v>36</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F110" t="s">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E112" s="57">
-        <f>+E109+1</f>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F112" s="55">
+        <f>+F109+1</f>
         <v>37</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E115" s="57">
-        <f>+E112+1</f>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F115" s="55">
+        <f>+F112+1</f>
         <v>38</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E118" s="57">
-        <f>+E115+1</f>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F118" s="55">
+        <f>+F115+1</f>
         <v>39</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E121" s="57">
-        <f>+E118+1</f>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F121" s="55">
+        <f>+F118+1</f>
         <v>40</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F122" t="s">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E124" s="57">
-        <f>+E121+1</f>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F124" s="55">
+        <f>+F121+1</f>
         <v>41</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F125" t="s">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E127" s="57">
-        <f>+E124+1</f>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F127" s="55">
+        <f>+F124+1</f>
         <v>42</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E130" s="57">
-        <f>+E127+1</f>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F130" s="55">
+        <f>+F127+1</f>
         <v>43</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F131" t="s">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E133" s="57">
-        <f>+E130+1</f>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F133" s="55">
+        <f>+F130+1</f>
         <v>44</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E136" s="57">
-        <f>+E133+1</f>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F136" s="55">
+        <f>+F133+1</f>
         <v>45</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E139" s="57">
-        <f>+E136+1</f>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F139" s="55">
+        <f>+F136+1</f>
         <v>46</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E142" s="57">
-        <f>+E139+1</f>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F142" s="55">
+        <f>+F139+1</f>
         <v>47</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E145" s="57">
-        <f>+E142+1</f>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F145" s="55">
+        <f>+F142+1</f>
         <v>48</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F146" t="s">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E148" s="57">
-        <f>+E145+1</f>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F148" s="55">
+        <f>+F145+1</f>
         <v>49</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F149" t="s">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E151" s="57">
-        <f>+E148+1</f>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F151" s="55">
+        <f>+F148+1</f>
         <v>50</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D153" s="57" t="s">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D153" s="55" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E154" s="57">
+      <c r="E153" s="55"/>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F154" s="55">
         <v>51</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E157" s="57">
-        <f>+E154+1</f>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F157" s="55">
+        <f>+F154+1</f>
         <v>52</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E160" s="57">
-        <f>+E157+1</f>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F160" s="55">
+        <f>+F157+1</f>
         <v>53</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E163" s="57">
-        <f>+E160+1</f>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F163" s="55">
+        <f>+F160+1</f>
         <v>54</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E166" s="57">
-        <f>+E163+1</f>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F166" s="55">
+        <f>+F163+1</f>
         <v>55</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F167" t="s">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E169" s="57">
-        <f>+E166+1</f>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F169" s="55">
+        <f>+F166+1</f>
         <v>56</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F170" t="s">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E172" s="57">
-        <f>+E169+1</f>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F172" s="55">
+        <f>+F169+1</f>
         <v>57</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F173" t="s">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E175" s="57">
-        <f>+E172+1</f>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F175" s="55">
+        <f>+F172+1</f>
         <v>58</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F176" t="s">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E178" s="57">
-        <f>+E175+1</f>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F178" s="55">
+        <f>+F175+1</f>
         <v>59</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F179" t="s">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E181" s="57">
-        <f>+E178+1</f>
+    <row r="181" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F181" s="55">
+        <f>+F178+1</f>
         <v>60</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F182" t="s">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G182" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E184" s="57">
-        <f>+E181+1</f>
+    <row r="184" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F184" s="55">
+        <f>+F181+1</f>
         <v>61</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F185" t="s">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G185" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E187" s="57">
-        <f>+E184+1</f>
+    <row r="187" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F187" s="55">
+        <f>+F184+1</f>
         <v>62</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F188" t="s">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G188" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E190" s="57">
-        <f>+E187+1</f>
+    <row r="190" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F190" s="55">
+        <f>+F187+1</f>
         <v>63</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F191" t="s">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G191" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E193" s="57">
-        <f>+E190+1</f>
+    <row r="193" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F193" s="55">
+        <f>+F190+1</f>
         <v>64</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F194" t="s">
+    <row r="194" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G194" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E196" s="57">
-        <f>+E193+1</f>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F196" s="55">
+        <f>+F193+1</f>
         <v>65</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F197" t="s">
+    <row r="197" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G197" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E199" s="57">
-        <f>+E196+1</f>
+    <row r="199" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F199" s="55">
+        <f>+F196+1</f>
         <v>66</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F200" t="s">
+    <row r="200" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G200" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E202" s="57">
-        <f>+E199+1</f>
+    <row r="202" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F202" s="55">
+        <f>+F199+1</f>
         <v>67</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F203" t="s">
+    <row r="203" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G203" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E205" s="57">
-        <f>+E202+1</f>
+    <row r="205" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F205" s="55">
+        <f>+F202+1</f>
         <v>68</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F206" t="s">
+    <row r="206" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G206" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E208" s="57">
-        <f>+E205+1</f>
+    <row r="208" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F208" s="55">
+        <f>+F205+1</f>
         <v>69</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F209" t="s">
+    <row r="209" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E211" s="57">
-        <f>+E208+1</f>
+    <row r="211" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F211" s="55">
+        <f>+F208+1</f>
         <v>70</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F212" t="s">
+    <row r="212" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E214" s="57">
-        <f>+E211+1</f>
+    <row r="214" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F214" s="55">
+        <f>+F211+1</f>
         <v>71</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F215" t="s">
+    <row r="215" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E217" s="57">
-        <f>+E214+1</f>
+    <row r="217" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F217" s="55">
+        <f>+F214+1</f>
         <v>72</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F218" t="s">
+    <row r="218" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E220" s="57">
-        <f>+E217+1</f>
+    <row r="220" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F220" s="55">
+        <f>+F217+1</f>
         <v>73</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F221" t="s">
+    <row r="221" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E223" s="57">
-        <f>+E220+1</f>
+    <row r="223" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F223" s="55">
+        <f>+F220+1</f>
         <v>74</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F224" t="s">
+    <row r="224" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E226" s="57">
-        <f>+E223+1</f>
+    <row r="226" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F226" s="55">
+        <f>+F223+1</f>
         <v>75</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F227" t="s">
+    <row r="227" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G227" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E229" s="57">
-        <f>+E226+1</f>
+    <row r="229" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F229" s="55">
+        <f>+F226+1</f>
         <v>76</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F230" t="s">
+    <row r="230" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G230" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E232" s="57">
-        <f>+E229+1</f>
+    <row r="232" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F232" s="55">
+        <f>+F229+1</f>
         <v>77</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F233" t="s">
+    <row r="233" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E235" s="57">
-        <f>+E232+1</f>
+    <row r="235" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F235" s="55">
+        <f>+F232+1</f>
         <v>78</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F236" t="s">
+    <row r="236" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G236" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E238" s="57">
-        <f>+E235+1</f>
+    <row r="238" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F238" s="55">
+        <f>+F235+1</f>
         <v>79</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F239" t="s">
+    <row r="239" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E241" s="57">
-        <f>+E238+1</f>
+    <row r="241" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F241" s="55">
+        <f>+F238+1</f>
         <v>80</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F242" t="s">
+    <row r="242" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G242" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E244" s="57">
-        <f>+E241+1</f>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F244" s="55">
+        <f>+F241+1</f>
         <v>81</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F245" t="s">
+    <row r="245" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E247" s="57">
-        <f>+E244+1</f>
+    <row r="247" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F247" s="55">
+        <f>+F244+1</f>
         <v>82</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F248" t="s">
+    <row r="248" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G248" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E250" s="57">
-        <f>+E247+1</f>
+    <row r="250" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F250" s="55">
+        <f>+F247+1</f>
         <v>83</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F251" t="s">
+    <row r="251" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G251" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E253" s="57">
-        <f>+E250+1</f>
+    <row r="253" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F253" s="55">
+        <f>+F250+1</f>
         <v>84</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F254" t="s">
+    <row r="254" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G254" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E256" s="57">
-        <f>+E253+1</f>
+    <row r="256" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F256" s="55">
+        <f>+F253+1</f>
         <v>85</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F257" t="s">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E259" s="57">
-        <f>+E256+1</f>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F259" s="55">
+        <f>+F256+1</f>
         <v>86</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F260" t="s">
+    <row r="260" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E262" s="57">
-        <f>+E259+1</f>
+    <row r="262" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F262" s="55">
+        <f>+F259+1</f>
         <v>87</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F263" t="s">
+    <row r="263" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E265" s="57">
-        <f>+E262+1</f>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F265" s="55">
+        <f>+F262+1</f>
         <v>88</v>
       </c>
-      <c r="F265" t="s">
+      <c r="G265" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F266" t="s">
+    <row r="266" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G266" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E268" s="57">
-        <f>+E265+1</f>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F268" s="55">
+        <f>+F265+1</f>
         <v>89</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F269" t="s">
+    <row r="269" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D270" s="57" t="s">
+    <row r="270" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D270" s="55" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E271" s="57">
-        <f>+E268+1</f>
+      <c r="E270" s="55"/>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F271" s="55">
+        <f>+F268+1</f>
         <v>90</v>
       </c>
-      <c r="F271" t="s">
+      <c r="G271" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F272" t="s">
+    <row r="272" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G272" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E274" s="57">
-        <f>+E271+1</f>
+    <row r="274" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F274" s="55">
+        <f>+F271+1</f>
         <v>91</v>
       </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F275" t="s">
+    <row r="275" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G275" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E277" s="57">
-        <f>+E274+1</f>
+    <row r="277" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F277" s="55">
+        <f>+F274+1</f>
         <v>92</v>
       </c>
-      <c r="F277" t="s">
+      <c r="G277" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F278" t="s">
+    <row r="278" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G278" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E280" s="57">
-        <f>+E277+1</f>
+    <row r="280" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F280" s="55">
+        <f>+F277+1</f>
         <v>93</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F281" t="s">
+    <row r="281" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G281" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E283" s="57">
-        <f>+E280+1</f>
+    <row r="283" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F283" s="55">
+        <f>+F280+1</f>
         <v>94</v>
       </c>
-      <c r="F283" t="s">
+      <c r="G283" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F284" t="s">
+    <row r="284" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E286" s="57">
-        <f>+E283+1</f>
+    <row r="286" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F286" s="55">
+        <f>+F283+1</f>
         <v>95</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F287" t="s">
+    <row r="287" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G287" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E289" s="57">
-        <f>+E286+1</f>
+    <row r="289" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F289" s="55">
+        <f>+F286+1</f>
         <v>96</v>
       </c>
-      <c r="F289" t="s">
+      <c r="G289" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F290" t="s">
+    <row r="290" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G290" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E292" s="57">
-        <f>+E289+1</f>
+    <row r="292" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F292" s="55">
+        <f>+F289+1</f>
         <v>97</v>
       </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F293" t="s">
+    <row r="293" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E295" s="57">
-        <f>+E292+1</f>
+    <row r="295" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F295" s="55">
+        <f>+F292+1</f>
         <v>98</v>
       </c>
-      <c r="F295" t="s">
+      <c r="G295" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F296" t="s">
+    <row r="296" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G296" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E298" s="57">
-        <f>+E295+1</f>
+    <row r="298" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F298" s="55">
+        <f>+F295+1</f>
         <v>99</v>
       </c>
-      <c r="F298" t="s">
+      <c r="G298" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F299" t="s">
+    <row r="299" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G299" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E301" s="57">
-        <f>+E298+1</f>
+    <row r="301" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F301" s="55">
+        <f>+F298+1</f>
         <v>100</v>
       </c>
-      <c r="F301" t="s">
+      <c r="G301" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F302" t="s">
+    <row r="302" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G302" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E304" s="57">
-        <f>+E301+1</f>
+    <row r="304" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F304" s="55">
+        <f>+F301+1</f>
         <v>101</v>
       </c>
-      <c r="F304" t="s">
+      <c r="G304" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F305" t="s">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G305" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E307" s="57">
-        <f>+E304+1</f>
+    <row r="307" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F307" s="55">
+        <f>+F304+1</f>
         <v>102</v>
       </c>
-      <c r="F307" t="s">
+      <c r="G307" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F308" t="s">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G308" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D309" s="57" t="s">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D309" s="55" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E310" s="57">
-        <f>+E307+1</f>
+      <c r="E309" s="55"/>
+    </row>
+    <row r="310" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F310" s="55">
+        <f>+F307+1</f>
         <v>103</v>
       </c>
-      <c r="F310" t="s">
+      <c r="G310" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F311" t="s">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G311" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E313" s="57">
-        <f>+E310+1</f>
+    <row r="313" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F313" s="55">
+        <f>+F310+1</f>
         <v>104</v>
       </c>
-      <c r="F313" t="s">
+      <c r="G313" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F314" t="s">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G314" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E316" s="57">
-        <f>+E313+1</f>
+    <row r="316" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F316" s="55">
+        <f>+F313+1</f>
         <v>105</v>
       </c>
-      <c r="F316" t="s">
+      <c r="G316" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F317" t="s">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G317" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E319" s="57">
-        <f>+E316+1</f>
+    <row r="319" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F319" s="55">
+        <f>+F316+1</f>
         <v>106</v>
       </c>
-      <c r="F319" t="s">
+      <c r="G319" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F320" t="s">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G320" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E322" s="57">
-        <f>+E319+1</f>
+    <row r="322" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F322" s="55">
+        <f>+F319+1</f>
         <v>107</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G322" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F323" t="s">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G323" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D324" s="57" t="s">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D324" s="55" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E325" s="57">
-        <f>+E322+1</f>
+      <c r="E324" s="55"/>
+    </row>
+    <row r="325" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F325" s="55">
+        <f>+F322+1</f>
         <v>108</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E328" s="57">
-        <f>+E325+1</f>
+    <row r="328" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F328" s="55">
+        <f>+F325+1</f>
         <v>109</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E331" s="57">
-        <f>+E328+1</f>
+    <row r="331" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F331" s="55">
+        <f>+F328+1</f>
         <v>110</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E334" s="57">
-        <f>+E331+1</f>
+    <row r="334" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F334" s="55">
+        <f>+F331+1</f>
         <v>111</v>
       </c>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E337" s="57">
-        <f>+E334+1</f>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F337" s="55">
+        <f>+F334+1</f>
         <v>112</v>
       </c>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E340" s="57">
-        <f>+E337+1</f>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F340" s="55">
+        <f>+F337+1</f>
         <v>113</v>
       </c>
     </row>
@@ -8700,7 +8793,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8708,31 +8801,31 @@
     <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="2:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58">
+    <row r="2" spans="2:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="56">
         <v>45526</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8744,7 +8837,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:5" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" location="Linvoseltamab!A1" display="Linvoseltamab (REGN 5458) (LINKER-MM1)" xr:uid="{30EF277D-6B73-4FC9-9F2A-B792C273934E}"/>
@@ -8758,58 +8851,59 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>3761108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>340</v>
       </c>
@@ -8826,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D24ED-CC97-417D-B0F3-ADE9FEB3A29D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8862,7 +8956,7 @@
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8924,7 +9018,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
